--- a/output/锐进58源乐晟尊享A XA1796_结果.xlsx
+++ b/output/锐进58源乐晟尊享A XA1796_结果.xlsx
@@ -802,7 +802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -858,6 +858,206 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5.84%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2017-11-17</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2017-12-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>37.11%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2018-02-02</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2018-12-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>34.45%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2018-01-05</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2019-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15.31%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21.19%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2021-04-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>38.90%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021-01-08</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2022-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>48.90%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2022-01-07</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>34.80%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2023-01-06</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17.09%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.45%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -869,7 +1069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -911,17 +1111,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6.54%</t>
+          <t>5.90%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2016-11-25</t>
+          <t>2016-11-30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2016-12-23</t>
+          <t>2016-12-31</t>
         </is>
       </c>
     </row>
@@ -951,7 +1151,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>33.40%</t>
+          <t>36.99%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -961,7 +1161,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2018-10-31</t>
+          <t>2018-12-31</t>
         </is>
       </c>
     </row>
@@ -971,17 +1171,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.68%</t>
+          <t>32.82%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2019-04-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2019-05-31</t>
+          <t>2019-01-31</t>
         </is>
       </c>
     </row>
@@ -1031,17 +1231,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>34.25%</t>
+          <t>37.12%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-31</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-31</t>
         </is>
       </c>
     </row>
@@ -1051,17 +1251,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>25.29%</t>
+          <t>46.85%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2023-01-31</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-31</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1271,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8.39%</t>
+          <t>32.95%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-01-31</t>
         </is>
       </c>
     </row>
@@ -1102,6 +1302,26 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>2025-11-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
         </is>
       </c>
     </row>

--- a/output/锐进58源乐晟尊享A XA1796_结果.xlsx
+++ b/output/锐进58源乐晟尊享A XA1796_结果.xlsx
@@ -67,7 +67,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
